--- a/medicine/Hématologie/Bisphosphoglycérate_mutase/Bisphosphoglycérate_mutase.xlsx
+++ b/medicine/Hématologie/Bisphosphoglycérate_mutase/Bisphosphoglycérate_mutase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bisphosphoglyc%C3%A9rate_mutase</t>
+          <t>Bisphosphoglycérate_mutase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bisphosphoglycérate mutase (BPGM) est une enzyme spécifique aux érythrocytes et aux cellules du placenta catalysant l'isomérisation du 1,3-bisphospho-D-glycérate (1,3-BPG) produit au cours de la glycolyse en 2,3-bisphospho-D-glycérate, qui a la propriété de stabiliser la forme désoxy de l'hémoglobine et donc de rendre plus efficace le transport de l'oxygène dans le sang sous faible pression partielle d'O2 en adaptant la courbe d'affinitité en conséquence.
